--- a/src/test/resources/TestData/TestCaseSettings.xlsx
+++ b/src/test/resources/TestData/TestCaseSettings.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Devices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Module name</t>
   </si>
@@ -37,15 +37,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>MOB_TC12180_verify_Brokerage_AccountDetails</t>
-  </si>
-  <si>
-    <t>Verify Brokerage Account details in L3 screen</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>11 Pro</t>
   </si>
   <si>
-    <t>Acive Brokerage Detail</t>
-  </si>
-  <si>
     <t>Samsung Galaxy S9+</t>
   </si>
   <si>
@@ -119,6 +107,15 @@
   </si>
   <si>
     <t>User Logging into the Treat Mobile App</t>
+  </si>
+  <si>
+    <t>RedmiK20Pro</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>MOB_TC002_LogIntoTreatApp</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,9 +330,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,18 +760,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="16" width="8.85546875" style="11"/>
     <col min="17" max="16384" width="8.85546875" style="13"/>
@@ -791,131 +785,131 @@
       <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>6</v>
+      <c r="C2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>32</v>
+      <c r="D3" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -923,8 +917,8 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -932,8 +926,8 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -941,8 +935,8 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -950,8 +944,8 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -959,8 +953,8 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -968,8 +962,8 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -977,8 +971,8 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -986,8 +980,8 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1009,10 +1003,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,16 +1019,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,10 +1050,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>11</v>
@@ -1070,13 +1064,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,13 +1078,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,40 +1092,54 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>25</v>
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="20">
+        <v>24</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19">
         <v>11</v>
       </c>
     </row>
